--- a/data/score.xlsx
+++ b/data/score.xlsx
@@ -29,7 +29,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
   <si>
     <t>ATHAZA AT</t>
   </si>
@@ -64,6 +70,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>反命题</t>
     </r>
     <r>
@@ -711,11 +723,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1041,7 +1050,7 @@
   <dimension ref="C1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1055,28 +1064,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="3:33">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1108,7 +1121,7 @@
       <c r="D2" s="1">
         <v>1000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1058</v>
       </c>
       <c r="F2" s="1">
@@ -1159,22 +1172,22 @@
       <c r="D3" s="1">
         <v>1000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1026</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1054</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1070</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1075</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>1082</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>1113</v>
       </c>
       <c r="K3" s="1">
@@ -1210,25 +1223,25 @@
       <c r="D4" s="1">
         <v>1000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>990</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>993</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>992</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>990</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>981</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>975</v>
       </c>
       <c r="L4" s="1"/>
@@ -1414,25 +1427,25 @@
       <c r="D8" s="1">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>990</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>989</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>983</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>978</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>970</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>992</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>996</v>
       </c>
       <c r="L8" s="1"/>
@@ -1567,25 +1580,25 @@
       <c r="D11" s="1">
         <v>1000</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1010</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1051</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1091</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>1117</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1143</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1118</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>1133</v>
       </c>
       <c r="L11" s="1"/>

--- a/data/score.xlsx
+++ b/data/score.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,40 @@
   </si>
   <si>
     <t>BS IN</t>
+  </si>
+  <si>
+    <t>mope AT</t>
+  </si>
+  <si>
+    <t>satellite AT</t>
+  </si>
+  <si>
+    <r>
+      <t>夜剧院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>潘多拉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -267,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,7 +310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,12 +507,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,7 +654,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,129 +666,135 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1111,7 @@
   <dimension ref="C1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1061,6 +1122,9 @@
     <col min="8" max="8" width="15.1818181818182" customWidth="1"/>
     <col min="9" max="9" width="14.1818181818182" customWidth="1"/>
     <col min="10" max="10" width="11.4545454545455" customWidth="1"/>
+    <col min="13" max="13" width="14.8181818181818" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="10.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="3:33">
@@ -1085,16 +1149,24 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1112,7 +1184,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
+      <c r="AG1" s="4"/>
     </row>
     <row r="2" ht="14.5" spans="3:33">
       <c r="C2" s="1">
@@ -1124,25 +1196,13 @@
       <c r="E2" s="2">
         <v>1058</v>
       </c>
-      <c r="F2" s="1">
-        <v>1058</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1058</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1058</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1058</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1058</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1058</v>
-      </c>
-      <c r="L2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1163,7 +1223,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
+      <c r="AG2" s="4"/>
     </row>
     <row r="3" ht="14.5" spans="3:33">
       <c r="C3" s="1">
@@ -1190,10 +1250,8 @@
       <c r="J3" s="2">
         <v>1113</v>
       </c>
-      <c r="K3" s="1">
-        <v>1113</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1214,7 +1272,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+      <c r="AG3" s="4"/>
     </row>
     <row r="4" ht="14.5" spans="3:33">
       <c r="C4" s="1">
@@ -1244,7 +1302,9 @@
       <c r="K4" s="2">
         <v>975</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="2">
+        <v>975</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1265,7 +1325,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="AG4" s="4"/>
     </row>
     <row r="5" ht="14.5" spans="3:33">
       <c r="C5" s="1">
@@ -1274,28 +1334,14 @@
       <c r="D5" s="1">
         <v>1000</v>
       </c>
-      <c r="E5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1316,7 +1362,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+      <c r="AG5" s="4"/>
     </row>
     <row r="6" ht="14.5" spans="3:33">
       <c r="C6" s="1">
@@ -1325,28 +1371,14 @@
       <c r="D6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1367,7 +1399,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="4"/>
     </row>
     <row r="7" ht="14.5" spans="3:33">
       <c r="C7" s="1">
@@ -1376,28 +1408,14 @@
       <c r="D7" s="1">
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1418,7 +1436,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
+      <c r="AG7" s="4"/>
     </row>
     <row r="8" ht="14.5" spans="3:33">
       <c r="C8" s="1">
@@ -1448,10 +1466,18 @@
       <c r="K8" s="2">
         <v>996</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="L8" s="2">
+        <v>996</v>
+      </c>
+      <c r="M8" s="1">
+        <v>992</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1006</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1469,7 +1495,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
+      <c r="AG8" s="4"/>
     </row>
     <row r="9" ht="14.5" spans="3:33">
       <c r="C9" s="1">
@@ -1478,28 +1504,14 @@
       <c r="D9" s="1">
         <v>1000</v>
       </c>
-      <c r="E9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1520,7 +1532,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
+      <c r="AG9" s="4"/>
     </row>
     <row r="10" ht="14.5" spans="3:33">
       <c r="C10" s="1">
@@ -1529,28 +1541,14 @@
       <c r="D10" s="1">
         <v>1000</v>
       </c>
-      <c r="E10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1571,7 +1569,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
+      <c r="AG10" s="4"/>
     </row>
     <row r="11" ht="14.5" spans="3:33">
       <c r="C11" s="1">
@@ -1601,7 +1599,7 @@
       <c r="K11" s="2">
         <v>1133</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1622,7 +1620,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="AG11" s="4"/>
     </row>
     <row r="12" ht="14.5" spans="3:33">
       <c r="C12" s="1">
@@ -1631,27 +1629,13 @@
       <c r="D12" s="1">
         <v>1000</v>
       </c>
-      <c r="E12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1000</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1673,7 +1657,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="4"/>
     </row>
     <row r="13" ht="14.5" spans="3:33">
       <c r="C13" s="1">
@@ -1682,27 +1666,13 @@
       <c r="D13" s="1">
         <v>1000</v>
       </c>
-      <c r="E13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1000</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1724,7 +1694,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="4"/>
     </row>
     <row r="14" ht="14.5" spans="3:33">
       <c r="C14" s="1">
@@ -1733,27 +1703,13 @@
       <c r="D14" s="1">
         <v>1000</v>
       </c>
-      <c r="E14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1000</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1775,7 +1731,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
+      <c r="AG14" s="4"/>
     </row>
     <row r="15" ht="14.5" spans="3:33">
       <c r="C15" s="1">
@@ -1784,31 +1740,25 @@
       <c r="D15" s="1">
         <v>1000</v>
       </c>
-      <c r="E15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>1022</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1030</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1017</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1010</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1826,11 +1776,15 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="4"/>
     </row>
     <row r="16" ht="14.5" spans="3:33">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1000</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1839,9 +1793,13 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>1034</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1">
+        <v>1066</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1859,11 +1817,15 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="AG16" s="4"/>
     </row>
     <row r="17" ht="14.5" spans="3:33">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1000</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1892,11 +1854,15 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
+      <c r="AG17" s="4"/>
     </row>
     <row r="18" ht="14.5" spans="3:33">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1000</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1925,436 +1891,436 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AG18" s="4"/>
     </row>
     <row r="19" ht="14.5" spans="3:33">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
     </row>
     <row r="20" ht="14.5" spans="3:33">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
     </row>
     <row r="21" ht="14.5" spans="3:33">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
     </row>
     <row r="22" ht="14.5" spans="3:33">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
     </row>
     <row r="23" ht="14.5" spans="3:33">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
     </row>
     <row r="24" ht="14.5" spans="3:33">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
     </row>
     <row r="25" ht="14.5" spans="3:33">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
     </row>
     <row r="26" ht="14.5" spans="3:33">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
     </row>
     <row r="27" ht="14.5" spans="3:33">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
     </row>
     <row r="28" ht="14.5" spans="3:33">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
     </row>
     <row r="29" ht="14.5" spans="3:33">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
     </row>
     <row r="30" ht="14.5" spans="3:33">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
     </row>
     <row r="31" ht="14.5" spans="3:33">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/score.xlsx
+++ b/data/score.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>夜剧院</t>
     </r>
     <r>
@@ -113,7 +119,64 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>潘多拉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+  </si>
+  <si>
+    <t>ATRR AT</t>
+  </si>
+  <si>
+    <t>321 AT</t>
+  </si>
+  <si>
+    <r>
+      <t>白复生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> AT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>白复生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+  </si>
+  <si>
+    <t>NOx IN</t>
+  </si>
+  <si>
+    <r>
+      <t>真理</t>
     </r>
     <r>
       <rPr>
@@ -301,18 +364,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -654,7 +711,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,16 +735,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -696,89 +753,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +843,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1110,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="C1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1125,6 +1179,9 @@
     <col min="13" max="13" width="14.8181818181818" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="10.5454545454545" customWidth="1"/>
+    <col min="18" max="18" width="10.8181818181818" customWidth="1"/>
+    <col min="19" max="19" width="10.6363636363636" customWidth="1"/>
+    <col min="21" max="21" width="13.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="3:33">
@@ -1149,7 +1206,7 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1161,19 +1218,33 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -1184,7 +1255,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="4"/>
+      <c r="AG1" s="3"/>
     </row>
     <row r="2" ht="14.5" spans="3:33">
       <c r="C2" s="1">
@@ -1196,21 +1267,29 @@
       <c r="E2" s="2">
         <v>1058</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="P2" s="1">
+        <v>1068</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1090</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1099</v>
+      </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="T2" s="1">
+        <v>1118</v>
+      </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1223,7 +1302,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="4"/>
+      <c r="AG2" s="3"/>
     </row>
     <row r="3" ht="14.5" spans="3:33">
       <c r="C3" s="1">
@@ -1250,8 +1329,8 @@
       <c r="J3" s="2">
         <v>1113</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1272,7 +1351,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="4"/>
+      <c r="AG3" s="3"/>
     </row>
     <row r="4" ht="14.5" spans="3:33">
       <c r="C4" s="1">
@@ -1314,7 +1393,9 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="1">
+        <v>1002</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1325,7 +1406,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="4"/>
+      <c r="AG4" s="3"/>
     </row>
     <row r="5" ht="14.5" spans="3:33">
       <c r="C5" s="1">
@@ -1334,14 +1415,14 @@
       <c r="D5" s="1">
         <v>1000</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1351,7 +1432,9 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="V5" s="1">
+        <v>993</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1362,7 +1445,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="3"/>
     </row>
     <row r="6" ht="14.5" spans="3:33">
       <c r="C6" s="1">
@@ -1371,14 +1454,14 @@
       <c r="D6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1399,7 +1482,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="4"/>
+      <c r="AG6" s="3"/>
     </row>
     <row r="7" ht="14.5" spans="3:33">
       <c r="C7" s="1">
@@ -1408,14 +1491,14 @@
       <c r="D7" s="1">
         <v>1000</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1436,7 +1519,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="4"/>
+      <c r="AG7" s="3"/>
     </row>
     <row r="8" ht="14.5" spans="3:33">
       <c r="C8" s="1">
@@ -1481,9 +1564,15 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="S8" s="1">
+        <v>1008</v>
+      </c>
+      <c r="T8" s="1">
+        <v>996</v>
+      </c>
+      <c r="U8" s="1">
+        <v>990</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -1495,7 +1584,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="4"/>
+      <c r="AG8" s="3"/>
     </row>
     <row r="9" ht="14.5" spans="3:33">
       <c r="C9" s="1">
@@ -1504,14 +1593,14 @@
       <c r="D9" s="1">
         <v>1000</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1532,7 +1621,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="4"/>
+      <c r="AG9" s="3"/>
     </row>
     <row r="10" ht="14.5" spans="3:33">
       <c r="C10" s="1">
@@ -1541,14 +1630,14 @@
       <c r="D10" s="1">
         <v>1000</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1569,7 +1658,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="4"/>
+      <c r="AG10" s="3"/>
     </row>
     <row r="11" ht="14.5" spans="3:33">
       <c r="C11" s="1">
@@ -1620,7 +1709,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="4"/>
+      <c r="AG11" s="3"/>
     </row>
     <row r="12" ht="14.5" spans="3:33">
       <c r="C12" s="1">
@@ -1657,7 +1746,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="4"/>
+      <c r="AG12" s="3"/>
     </row>
     <row r="13" ht="14.5" spans="3:33">
       <c r="C13" s="1">
@@ -1694,7 +1783,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="4"/>
+      <c r="AG13" s="3"/>
     </row>
     <row r="14" ht="14.5" spans="3:33">
       <c r="C14" s="1">
@@ -1731,7 +1820,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="4"/>
+      <c r="AG14" s="3"/>
     </row>
     <row r="15" ht="14.5" spans="3:33">
       <c r="C15" s="1">
@@ -1759,13 +1848,25 @@
       <c r="O15" s="1">
         <v>1010</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="P15" s="1">
+        <v>1007</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1003</v>
+      </c>
+      <c r="R15" s="1">
+        <v>998</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1025</v>
+      </c>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="U15" s="1">
+        <v>1025</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1022</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1776,7 +1877,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="4"/>
+      <c r="AG15" s="3"/>
     </row>
     <row r="16" ht="14.5" spans="3:33">
       <c r="C16" s="1">
@@ -1801,11 +1902,19 @@
         <v>1066</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <v>1065</v>
+      </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="S16" s="1">
+        <v>1055</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1055</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1076</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -1817,7 +1926,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="4"/>
+      <c r="AG16" s="3"/>
     </row>
     <row r="17" ht="14.5" spans="3:33">
       <c r="C17" s="1">
@@ -1854,7 +1963,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="4"/>
+      <c r="AG17" s="3"/>
     </row>
     <row r="18" ht="14.5" spans="3:33">
       <c r="C18" s="1">
@@ -1891,436 +2000,436 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="4"/>
+      <c r="AG18" s="3"/>
     </row>
     <row r="19" ht="14.5" spans="3:33">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
     </row>
     <row r="20" ht="14.5" spans="3:33">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
     </row>
     <row r="21" ht="14.5" spans="3:33">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
     </row>
     <row r="22" ht="14.5" spans="3:33">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
     </row>
     <row r="23" ht="14.5" spans="3:33">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
     </row>
     <row r="24" ht="14.5" spans="3:33">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
     </row>
     <row r="25" ht="14.5" spans="3:33">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
     </row>
     <row r="26" ht="14.5" spans="3:33">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
     </row>
     <row r="27" ht="14.5" spans="3:33">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
     </row>
     <row r="28" ht="14.5" spans="3:33">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
     </row>
     <row r="29" ht="14.5" spans="3:33">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
     </row>
     <row r="30" ht="14.5" spans="3:33">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
     </row>
     <row r="31" ht="14.5" spans="3:33">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
